--- a/AutomationTestLevel/core_local/testdata/Sanity.xlsx
+++ b/AutomationTestLevel/core_local/testdata/Sanity.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EFD102EC-8233-47B7-AA89-FA046CE4FAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\Framework_Selenium\AutomationTestLevel\core_local\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE26536-8B66-46FB-B7E3-F1E8B14FA45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFlow" sheetId="2" r:id="rId1"/>
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +65,12 @@
   </si>
   <si>
     <t>Iterration2</t>
+  </si>
+  <si>
+    <t>openBS</t>
+  </si>
+  <si>
+    <t>core_2</t>
   </si>
 </sst>
 </file>
@@ -385,26 +395,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF87FD1-6FE7-40CD-8948-4882AB5B3022}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -430,6 +440,14 @@
       </c>
       <c r="D2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -443,23 +461,23 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -481,7 +499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -492,46 +510,46 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
   </sheetData>

--- a/AutomationTestLevel/core_local/testdata/Sanity.xlsx
+++ b/AutomationTestLevel/core_local/testdata/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\Framework_Selenium\AutomationTestLevel\core_local\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE26536-8B66-46FB-B7E3-F1E8B14FA45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C638995-0DD1-4671-94D4-8B9CAA0452F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -67,10 +67,10 @@
     <t>Iterration2</t>
   </si>
   <si>
-    <t>openBS</t>
-  </si>
-  <si>
-    <t>core_2</t>
+    <t>appium</t>
+  </si>
+  <si>
+    <t>launchApp</t>
   </si>
 </sst>
 </file>
@@ -444,15 +444,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -461,7 +462,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +512,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
